--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-other-vehicle.xlsx
+++ b/ValueSet-vs-other-vehicle.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
